--- a/results/mp/deberta/corona/confidence/168/stop-words-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-0.1/avg_0.004_scores.xlsx
@@ -91,25 +91,25 @@
     <t>support</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
   </si>
   <si>
     <t>hope</t>
@@ -1029,13 +1029,13 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6565217391304348</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L17">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="N17">
         <v>0.9399999999999999</v>
@@ -1047,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1055,25 +1055,25 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.6521739130434783</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L18">
         <v>30</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N18">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1081,13 +1081,13 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.6382978723404256</v>
+        <v>0.6317991631799164</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1159,25 +1159,25 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5290519877675841</v>
+        <v>0.52</v>
       </c>
       <c r="L22">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>186</v>
+        <v>26</v>
       </c>
       <c r="N22">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>154</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1185,13 +1185,13 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.52</v>
+        <v>0.5088235294117647</v>
       </c>
       <c r="L23">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>24</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="10:17">
